--- a/KUBERNATES_Notes.xlsx
+++ b/KUBERNATES_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\KUBERNETES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\KUBERNETES\KUBERNATES-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B3BBB-D9DD-4343-99B9-F63BBA945C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E564A799-4D8D-483D-89E1-9779E0F69223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="904" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="904" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>i</t>
   </si>
@@ -68,12 +68,429 @@
   <si>
     <t>service account</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">travis encrypt-file path/to/your/file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDF3079"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>--add</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>before_install:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF22C3D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>openssl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>aes-256-cbc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>$encrypted_key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-iv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>$encrypted_iv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file.enc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>script:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF22C3D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>kubectl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>secret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>generic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;secret_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00A67D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>--from-file=./file</t>
+    </r>
+  </si>
+  <si>
+    <t>- task: CmdLine@2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  displayName: 'Add environment variables from file'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  inputs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    script: |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      set -o allexport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      source path/to/your/file.env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      set +o allexport</t>
+  </si>
+  <si>
+    <t>- task: AzureKeyVault@2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    azureSubscriptionEndpoint: 'YourAzureServiceConnection'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    keyVaultName: 'YourKeyVaultName'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    secretsFilter: '*'</t>
+  </si>
+  <si>
+    <t>- script: |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    export YOUR_SECRET=$(echo $(YOUR_SECRET) | base64 --decode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  displayName: 'Set environment variable from Key Vault secret'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,8 +498,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDF3079"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF22C3D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A67D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +536,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,13 +557,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3293,15 +3844,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3324,7 +3875,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534025" y="20831175"/>
+          <a:off x="5495925" y="21221700"/>
           <a:ext cx="5248275" cy="1952625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3458,6 +4009,94 @@
         <a:xfrm>
           <a:off x="85725" y="30308550"/>
           <a:ext cx="12374702" cy="2905530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371997</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>181839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6797A674-BDA6-BA9A-A7C6-7E6F1C75B6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="15325725"/>
+          <a:ext cx="3743847" cy="6192114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>343291</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>105134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF106731-3CA2-1A17-4A25-F2FD4070737C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953750" y="3057525"/>
+          <a:ext cx="2800741" cy="2572109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4034,7 +4673,7 @@
   <dimension ref="A56:A113"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,7 +4703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F615C45-66E0-4D0F-8848-98A72B1AAA40}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -4103,14 +4742,244 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0AE791-511C-43D2-83FA-1FAA4A0AB6D1}">
-  <dimension ref="A1"/>
+  <dimension ref="B104:P119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S86" sqref="S86"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="R111" sqref="R111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="104" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="4"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="7"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="7"/>
+    </row>
+    <row r="108" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="8"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="10"/>
+    </row>
+    <row r="110" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B111" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="13"/>
+      <c r="I111" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="13"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B112" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="16"/>
+      <c r="I112" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="16"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="16"/>
+      <c r="I113" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="16"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="16"/>
+      <c r="I114" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="16"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="16"/>
+      <c r="I115" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="16"/>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="16"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="16"/>
+    </row>
+    <row r="117" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="19"/>
+      <c r="I117" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="16"/>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I118" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="16"/>
+    </row>
+    <row r="119" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I119" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="19"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4135,9 +5004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EF5B76-4913-4ECC-96C1-FBC4A9C77112}">
   <dimension ref="A17:A96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4176,7 +5043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF80A2-EFA0-4671-A96A-33B511C2A97A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -4206,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24848881-F1A9-4640-A115-7B2FC43F49C6}">
   <dimension ref="A109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="S116" sqref="S116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
